--- a/HRM/api/Resources/Template/SalaryReport/7_2_5_MonthlySalaryDetailReport/Download.xlsx
+++ b/HRM/api/Resources/Template/SalaryReport/7_2_5_MonthlySalaryDetailReport/Download.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\HRM_System\API\Resources\Template\SalaryReport\7_2_5_MonthlySalaryDetailReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TANH\TFS\HRM_System\API\Resources\Template\SalaryReport\7_2_5_MonthlySalaryDetailReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>列印人員</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -143,6 +143,24 @@
   </si>
   <si>
     <t>合計Total：</t>
+  </si>
+  <si>
+    <t>幣別</t>
+  </si>
+  <si>
+    <t>&amp;=result.Currency</t>
+  </si>
+  <si>
+    <t>薪資計別</t>
+  </si>
+  <si>
+    <t>&amp;=result.Salary_Type</t>
+  </si>
+  <si>
+    <t>轉帳否</t>
+  </si>
+  <si>
+    <t>&amp;=result.Transfer</t>
   </si>
 </sst>
 </file>
@@ -345,11 +363,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -638,54 +656,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL14"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="29.375" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
-    <col min="12" max="12" width="15.875" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="24" customWidth="1"/>
-    <col min="15" max="15" width="11.75" customWidth="1"/>
-    <col min="16" max="16" width="14.125" customWidth="1"/>
-    <col min="17" max="17" width="18.5" customWidth="1"/>
-    <col min="18" max="18" width="11.875" customWidth="1"/>
-    <col min="19" max="19" width="30.375" customWidth="1"/>
-    <col min="20" max="20" width="20.5" customWidth="1"/>
-    <col min="21" max="21" width="18.5" customWidth="1"/>
-    <col min="22" max="23" width="14.5" customWidth="1"/>
-    <col min="24" max="24" width="14.875" customWidth="1"/>
-    <col min="25" max="25" width="17.375" customWidth="1"/>
-    <col min="26" max="26" width="19.25" customWidth="1"/>
-    <col min="27" max="27" width="25.125" customWidth="1"/>
-    <col min="28" max="29" width="20.75" customWidth="1"/>
-    <col min="30" max="30" width="34.125" customWidth="1"/>
-    <col min="31" max="31" width="13.75" customWidth="1"/>
-    <col min="32" max="32" width="13.5" customWidth="1"/>
-    <col min="33" max="33" width="25.375" customWidth="1"/>
-    <col min="34" max="34" width="18.5" customWidth="1"/>
-    <col min="35" max="35" width="18.125" customWidth="1"/>
-    <col min="36" max="36" width="19.375" customWidth="1"/>
-    <col min="37" max="37" width="33.25" customWidth="1"/>
-    <col min="38" max="38" width="23" customWidth="1"/>
-    <col min="39" max="39" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.375" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="15" max="15" width="15.875" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="24" customWidth="1"/>
+    <col min="18" max="18" width="11.75" customWidth="1"/>
+    <col min="19" max="19" width="14.125" customWidth="1"/>
+    <col min="20" max="20" width="18.5" customWidth="1"/>
+    <col min="21" max="21" width="11.875" customWidth="1"/>
+    <col min="22" max="22" width="30.375" customWidth="1"/>
+    <col min="23" max="23" width="20.5" customWidth="1"/>
+    <col min="24" max="24" width="18.5" customWidth="1"/>
+    <col min="25" max="26" width="14.5" customWidth="1"/>
+    <col min="27" max="27" width="14.875" customWidth="1"/>
+    <col min="28" max="28" width="17.375" customWidth="1"/>
+    <col min="29" max="29" width="19.25" customWidth="1"/>
+    <col min="30" max="30" width="25.125" customWidth="1"/>
+    <col min="31" max="32" width="20.75" customWidth="1"/>
+    <col min="33" max="33" width="34.125" customWidth="1"/>
+    <col min="34" max="34" width="13.75" customWidth="1"/>
+    <col min="35" max="35" width="13.5" customWidth="1"/>
+    <col min="36" max="36" width="25.375" customWidth="1"/>
+    <col min="37" max="37" width="18.5" customWidth="1"/>
+    <col min="38" max="38" width="18.125" customWidth="1"/>
+    <col min="39" max="39" width="19.375" customWidth="1"/>
+    <col min="40" max="40" width="33.25" customWidth="1"/>
+    <col min="41" max="41" width="23" customWidth="1"/>
+    <col min="42" max="42" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:41">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-    </row>
-    <row r="2" spans="1:38" ht="31.5">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:41" ht="31.5">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -701,16 +728,19 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="S2" s="7"/>
-      <c r="AA2" s="4"/>
-    </row>
-    <row r="3" spans="1:38">
+      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="V2" s="7"/>
+      <c r="AD2" s="4"/>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,30 +754,36 @@
         <v>3</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="S3" s="5"/>
-      <c r="AA3" s="5"/>
-    </row>
-    <row r="4" spans="1:38" s="9" customFormat="1">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="V3" s="5"/>
+      <c r="AD3" s="5"/>
+    </row>
+    <row r="4" spans="1:41" s="9" customFormat="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="I4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AG4" s="10"/>
-    </row>
-    <row r="5" spans="1:38">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="L4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AJ4" s="10"/>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
@@ -764,16 +800,25 @@
         <v>6</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:41">
       <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
@@ -790,22 +835,31 @@
         <v>24</v>
       </c>
       <c r="F6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="K6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="T6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-    </row>
-    <row r="7" spans="1:38">
+      <c r="L6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="W6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" s="13" t="s">
         <v>33</v>
       </c>
@@ -815,15 +869,18 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="T7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-    </row>
-    <row r="8" spans="1:38">
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="W7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -831,42 +888,45 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="T8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-    </row>
-    <row r="9" spans="1:38">
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="W8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" t="s">
+      <c r="K10" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="AA10" s="3"/>
+      <c r="V10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AG10" s="3"/>
-      <c r="AL10" s="3"/>
-    </row>
-    <row r="14" spans="1:38">
+      <c r="AJ10" s="3"/>
+      <c r="AO10" s="3"/>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" s="4"/>
     </row>
   </sheetData>
